--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\deploy_render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACC4A1E-0F81-4777-BC9B-53E599B6D562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330A496-EA3E-45F1-9FCD-756D70B30876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C623C473-F5E4-40B1-B6C5-BECCBC27F41C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Nome</t>
   </si>
@@ -33,21 +33,26 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Documento</t>
+    <t>CNPJ</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Telefone</t>
+    <t>Razão Social</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,10 +80,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,31 +405,29 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\deploy_render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330A496-EA3E-45F1-9FCD-756D70B30876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ACD8E3-A7E9-49EA-9D7F-231C9BE0F4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C623C473-F5E4-40B1-B6C5-BECCBC27F41C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nome</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Razão Social</t>
+  </si>
+  <si>
+    <t>Nome do Titular</t>
   </si>
 </sst>
 </file>
@@ -80,11 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,20 +414,22 @@
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
